--- a/biology/Botanique/Coleus/Coleus.xlsx
+++ b/biology/Botanique/Coleus/Coleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleus est un genre de plantes à fleurs de la famille des Labiées (Lamiaceae). L'espèce type est Coleus amboinicus Lour. (1790). Des plantes appartenant à présent à d'autres genres sont souvent appelées communément des coléus, en souvenir du genre Coleus qui a été révisé plusieurs fois par la suite.
 </t>
@@ -511,9 +523,11 @@
           <t>Révision du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, à la lumière de la phylogénie moléculaire les espèces ayant un temps été déplacées dans le genre Plectranthus, dans son sens large équivalent à la sous-tribu des Plectranthinae, ont ainsi été recomposées dans le genre Coleus, qui est à nouveau reconnu, et Equilabium. On compte à nouveau 294 espèces de Coleus, et ne restent par conséquent que 72 espèces de Plectranthus au sens strict, les autres étant 42 espèces Equilabium[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, à la lumière de la phylogénie moléculaire les espèces ayant un temps été déplacées dans le genre Plectranthus, dans son sens large équivalent à la sous-tribu des Plectranthinae, ont ainsi été recomposées dans le genre Coleus, qui est à nouveau reconnu, et Equilabium. On compte à nouveau 294 espèces de Coleus, et ne restent par conséquent que 72 espèces de Plectranthus au sens strict, les autres étant 42 espèces Equilabium.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2020) :
 Coleus abyssinicus (Fresen.) A.J.Paton (2019)
 Coleus acariformis (P.I.Forst.) P.I.Forst. (2019)
 Coleus achankoviliensis Smitha &amp; A.J.Paton (2019)
@@ -784,14 +800,14 @@
 Coleus xylopodus (Lukhoba &amp; A.J.Paton) A.J.Paton (2019)
 Coleus yemenensis A.J.Paton (2019)
 Coleus zombensis (Baker) Mwany. (2019)
-Selon NCBI  (26 juin 2020)[4] :
+Selon NCBI  (26 juin 2020) :
 Coleus carnosifolius (Hemsl.) Dunn
 Coleus luteus (Guerke) Staner
 Coleus xanthanthus C.Y.Wu &amp; Y.C.Huang
-Selon The Plant List            (26 juin 2020)[5] :
+Selon The Plant List            (26 juin 2020) :
 Coleus decurrens Gürke
 Coleus forskohlii (Willd.) Briq.
-Selon Tropicos                                           (26 juin 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Coleus abyssinicus (Fresen.) A.J. Paton
 Coleus acariformis (P.I. Forst.) P.I. Forst.
 Coleus achankoviliensis Smitha &amp; A.J. Paton
